--- a/KLS_WEB/KLS_WEB/wwwroot/DemandsExcel/Layout.xlsx
+++ b/KLS_WEB/KLS_WEB/wwwroot/DemandsExcel/Layout.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Consiss\source\repos\KLS\KLS_WEB\KLS_WEB\wwwroot\DemandsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141C5A2D-F257-40F8-9872-73E3FB1A673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D1AF8E-7698-40B5-8D2D-2A438D14D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28485" yWindow="1875" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlantillaCargaMasivaDemandas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>cliente</t>
   </si>
@@ -40,12 +43,6 @@
     <t>arribo</t>
   </si>
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Caja Seca - Sencillo</t>
-  </si>
-  <si>
     <t>CCZ</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>-3hr</t>
   </si>
   <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>caja seca - full</t>
-  </si>
-  <si>
     <t>fanal</t>
   </si>
   <si>
@@ -73,12 +64,6 @@
     <t>-1hr</t>
   </si>
   <si>
-    <t>tierra blanca</t>
-  </si>
-  <si>
-    <t>cmg</t>
-  </si>
-  <si>
     <t>-2hr</t>
   </si>
   <si>
@@ -86,12 +71,27 @@
   </si>
   <si>
     <t>13/01/2021 01:00 AM</t>
+  </si>
+  <si>
+    <t>costco</t>
+  </si>
+  <si>
+    <t>fs - full seca</t>
+  </si>
+  <si>
+    <t>cerveceria modelo de mexico</t>
+  </si>
+  <si>
+    <t>ccy</t>
+  </si>
+  <si>
+    <t>cmc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,6 +627,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PlantillaCargaMasivaDemandas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,11 +938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,62 +969,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
